--- a/biology/Biochimie/Acide_méthylmalonique/Acide_méthylmalonique.xlsx
+++ b/biology/Biochimie/Acide_méthylmalonique/Acide_méthylmalonique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acide_m%C3%A9thylmalonique</t>
+          <t>Acide_méthylmalonique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’acide méthylmalonique est un composé chimique de formule HOOC–CH(CH3)–COOH, parfois encore appelé acide isosuccinique.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Acide_m%C3%A9thylmalonique</t>
+          <t>Acide_méthylmalonique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,15 +524,17 @@
           <t>Métabolisme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'acide méthylmalonique est un sous-produit de certains processus métaboliques. Les sources d'acide méthylmalonique sont les suivantes:
-les acides aminés essentiels: méthionine, valine, thréonine et isoleucine[2]
-l'acide propanoïque issu de la fermentation bactérienne[2]
-acides gras à chaîne impaire[2]
-chaîne latérale du cholestérol[2]
-Le méthylmalonyl-CoA - la forme liée au coenzyme A de l'acide méthylmalonique - est converti en succinyl-CoA par la méthylmalonyl-CoA mutase, dans une réaction qui nécessite la vitamine B 12 sous forme d'adénosylcobalamine comme cofacteur. Elle entre ainsi dans le cycle de Krebs et fait donc partie de l'une des réactions anaplérotiques. En outre, l'enzyme ACSF3 reconvertit l'acide méthylmalonique en méthymalonyl-CoA[3].
-Les estérases intracellulaires sont capables d'éliminer le groupe méthyle (-CH3) de l'acide méthylmalonique et de générer ainsi de l'acide malonique[4]. 
+les acides aminés essentiels: méthionine, valine, thréonine et isoleucine
+l'acide propanoïque issu de la fermentation bactérienne
+acides gras à chaîne impaire
+chaîne latérale du cholestérol
+Le méthylmalonyl-CoA - la forme liée au coenzyme A de l'acide méthylmalonique - est converti en succinyl-CoA par la méthylmalonyl-CoA mutase, dans une réaction qui nécessite la vitamine B 12 sous forme d'adénosylcobalamine comme cofacteur. Elle entre ainsi dans le cycle de Krebs et fait donc partie de l'une des réactions anaplérotiques. En outre, l'enzyme ACSF3 reconvertit l'acide méthylmalonique en méthymalonyl-CoA.
+Les estérases intracellulaires sont capables d'éliminer le groupe méthyle (-CH3) de l'acide méthylmalonique et de générer ainsi de l'acide malonique. 
 </t>
         </is>
       </c>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Acide_m%C3%A9thylmalonique</t>
+          <t>Acide_méthylmalonique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,15 +565,125 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carence en vitamine B 12
-Un taux élevé d'acide méthylmalonique dans l'organisme peut indiquer une carence en vitamine B12, notamment lorsque celle-ci est présente en quantité normale mais non fonctionnelle, comme cela peut être le cas en cas d'intoxication répétée au protoxyde d'azote.
-Maladies métaboliques
-Des taux élevés d'acide méthylmalonique peuvent également être dus à une acidémie méthylmalonique.
-Si les taux élevés d'acide méthylmalonique sont accompagnés de taux élevés d'acide malonique, cela peut indiquer une maladie métabolique appelée acidurie combinée malonique et méthylmalonique (CMAMMA). Le calcul du rapport acide malonique/acide méthylmalonique dans le plasma sanguin permet de distinguer la CMAMMA de l'acidémie méthylmalonique classique[5].
-Cancer
-En outre, l'accumulation d'acide méthylmalonique dans le sang avec l'âge a été liée à la progression des tumeurs en 2020[6].
-Surcroissance bactérienne dans l'intestin grêle
-La prolifération bactérienne dans l'intestin grêle peut également conduire à des niveaux élevés d'acide méthylmalonique en raison de la concurrence des bactéries dans le processus d'absorption de la vitamine B 12[7]. Ceci est vrai pour la vitamine B 12 provenant de l'alimentation et de la supplémentation orale et peut être contourné par des injections de vitamine B 12. Des études de cas portant sur des patients atteints du syndrome de l'intestin court ont également permis de formuler l'hypothèse selon laquelle la prolifération bactérienne intestinale entraîne une production accrue d'acide propanoïque, qui est un précurseur de l'acide méthylmalonique[8],[7]. Il a été démontré que, dans ces cas, les taux d'acide méthylmalonique revenaient à la normale avec l'administration de métronidazole[8],[9]. 
+          <t>Carence en vitamine B 12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un taux élevé d'acide méthylmalonique dans l'organisme peut indiquer une carence en vitamine B12, notamment lorsque celle-ci est présente en quantité normale mais non fonctionnelle, comme cela peut être le cas en cas d'intoxication répétée au protoxyde d'azote.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Acide_méthylmalonique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acide_m%C3%A9thylmalonique</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Pertinence clinique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Maladies métaboliques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des taux élevés d'acide méthylmalonique peuvent également être dus à une acidémie méthylmalonique.
+Si les taux élevés d'acide méthylmalonique sont accompagnés de taux élevés d'acide malonique, cela peut indiquer une maladie métabolique appelée acidurie combinée malonique et méthylmalonique (CMAMMA). Le calcul du rapport acide malonique/acide méthylmalonique dans le plasma sanguin permet de distinguer la CMAMMA de l'acidémie méthylmalonique classique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Acide_méthylmalonique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acide_m%C3%A9thylmalonique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Pertinence clinique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cancer</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En outre, l'accumulation d'acide méthylmalonique dans le sang avec l'âge a été liée à la progression des tumeurs en 2020.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Acide_méthylmalonique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acide_m%C3%A9thylmalonique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Pertinence clinique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Surcroissance bactérienne dans l'intestin grêle</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La prolifération bactérienne dans l'intestin grêle peut également conduire à des niveaux élevés d'acide méthylmalonique en raison de la concurrence des bactéries dans le processus d'absorption de la vitamine B 12. Ceci est vrai pour la vitamine B 12 provenant de l'alimentation et de la supplémentation orale et peut être contourné par des injections de vitamine B 12. Des études de cas portant sur des patients atteints du syndrome de l'intestin court ont également permis de formuler l'hypothèse selon laquelle la prolifération bactérienne intestinale entraîne une production accrue d'acide propanoïque, qui est un précurseur de l'acide méthylmalonique,. Il a été démontré que, dans ces cas, les taux d'acide méthylmalonique revenaient à la normale avec l'administration de métronidazole,. 
 </t>
         </is>
       </c>
